--- a/Players.xlsx
+++ b/Players.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="113">
   <si>
     <t>nameTeam</t>
   </si>
@@ -345,6 +345,33 @@
   </si>
   <si>
     <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Derrick Walton Jr.</t>
+  </si>
+  <si>
+    <t>Brad Wanamaker</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Jaylen Hoard</t>
+  </si>
+  <si>
+    <t>Zavier Simpson</t>
   </si>
 </sst>
 </file>
@@ -742,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>26.3</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +780,7 @@
         <v>95</v>
       </c>
       <c r="C3" t="n">
-        <v>25.3</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="4">
@@ -764,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="5">
@@ -772,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="6">
@@ -786,7 +813,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +824,7 @@
         <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="8">
@@ -808,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>25.6</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="10">
@@ -830,7 +857,7 @@
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="11">
@@ -841,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="12">
@@ -852,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>16.5</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="13">
@@ -863,7 +890,7 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="15">
@@ -885,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="16">
@@ -896,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>24.1</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="17">
@@ -907,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>27.0</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="19">
@@ -929,7 +956,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="20">
@@ -937,10 +964,10 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>23.4</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="21">
@@ -951,7 +978,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="22">
@@ -962,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>21.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="23">
@@ -973,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>19.9</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="24">
@@ -984,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>24.3</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="25">
@@ -995,7 +1022,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>23.2</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="26">
@@ -1006,7 +1033,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
@@ -1017,7 +1044,7 @@
         <v>87</v>
       </c>
       <c r="C27" t="n">
-        <v>21.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="28">
@@ -1028,7 +1055,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>17.7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1063,10 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C29" t="n">
-        <v>20.1</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="30">
@@ -1050,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="C30" t="n">
-        <v>24.8</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="31">
@@ -1061,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="C31" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>8.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
@@ -1120,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>7.9</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="5">
@@ -1131,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C5" t="n">
         <v>7.7</v>
@@ -1145,7 +1172,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -1156,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="8">
@@ -1164,10 +1191,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="10">
@@ -1189,7 +1216,7 @@
         <v>92</v>
       </c>
       <c r="C10" t="n">
-        <v>8.1</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="11">
@@ -1200,7 +1227,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12">
@@ -1211,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="13">
@@ -1222,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="14">
@@ -1233,7 +1260,7 @@
         <v>98</v>
       </c>
       <c r="C14" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="15">
@@ -1244,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="16">
@@ -1255,7 +1282,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>8.8</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -1266,7 +1293,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="18">
@@ -1288,7 +1315,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>9.0</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="20">
@@ -1299,7 +1326,7 @@
         <v>63</v>
       </c>
       <c r="C20" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21">
@@ -1310,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>9.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="22">
@@ -1318,10 +1345,10 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C22" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="23">
@@ -1332,7 +1359,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="24">
@@ -1343,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25">
@@ -1354,7 +1381,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="26">
@@ -1365,7 +1392,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="27">
@@ -1373,10 +1400,10 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>9.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="28">
@@ -1387,7 +1414,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="n">
-        <v>8.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="29">
@@ -1395,10 +1422,10 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C29" t="n">
-        <v>8.3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="30">
@@ -1417,10 +1444,10 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C31" t="n">
-        <v>8.0</v>
+        <v>8.8</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>9.1</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="3">
@@ -1471,7 +1498,7 @@
         <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4">
@@ -1482,7 +1509,7 @@
         <v>73</v>
       </c>
       <c r="C4" t="n">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="5">
@@ -1493,7 +1520,7 @@
         <v>74</v>
       </c>
       <c r="C5" t="n">
-        <v>8.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1531,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7">
@@ -1515,7 +1542,7 @@
         <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
@@ -1526,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>8.5</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="9">
@@ -1537,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="10">
@@ -1545,10 +1572,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -1559,7 +1586,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="n">
-        <v>7.1</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -1570,7 +1597,7 @@
         <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13">
@@ -1578,10 +1605,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C13" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -1592,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15">
@@ -1603,7 +1630,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="16">
@@ -1614,7 +1641,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17">
@@ -1625,7 +1652,7 @@
         <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18">
@@ -1636,7 +1663,7 @@
         <v>102</v>
       </c>
       <c r="C18" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="19">
@@ -1647,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="20">
@@ -1655,10 +1682,10 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="21">
@@ -1669,7 +1696,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="22">
@@ -1677,10 +1704,10 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C22" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="23">
@@ -1691,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="24">
@@ -1699,10 +1726,10 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
-        <v>4.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="25">
@@ -1713,7 +1740,7 @@
         <v>85</v>
       </c>
       <c r="C25" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="26">
@@ -1724,7 +1751,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="27">
@@ -1735,7 +1762,7 @@
         <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
@@ -1746,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="29">
@@ -1757,7 +1784,7 @@
         <v>89</v>
       </c>
       <c r="C29" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="30">
@@ -1776,10 +1803,10 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C31" t="n">
-        <v>5.8</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/Players.xlsx
+++ b/Players.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="113">
   <si>
     <t>nameTeam</t>
   </si>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="5">
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="6">
@@ -824,7 +824,7 @@
         <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="8">
@@ -835,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="9">
@@ -901,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="15">
@@ -923,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="17">
@@ -967,7 +967,7 @@
         <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="21">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="25">
@@ -1055,7 +1055,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="29">
@@ -1128,7 +1128,7 @@
         <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="3">
@@ -1150,7 +1150,7 @@
         <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5">
@@ -1260,7 +1260,7 @@
         <v>98</v>
       </c>
       <c r="C14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>63</v>
       </c>
       <c r="C20" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="21">
@@ -1348,7 +1348,7 @@
         <v>111</v>
       </c>
       <c r="C22" t="n">
-        <v>11.5</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="23">
@@ -1370,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="25">
@@ -1619,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
@@ -1663,7 +1663,7 @@
         <v>102</v>
       </c>
       <c r="C18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="19">
@@ -1685,7 +1685,7 @@
         <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="21">
@@ -1707,7 +1707,7 @@
         <v>112</v>
       </c>
       <c r="C22" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23">
@@ -1729,7 +1729,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25">
@@ -1773,7 +1773,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>9.3</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="29">
@@ -1792,10 +1792,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="31">
